--- a/file/documents/accesses.xlsx
+++ b/file/documents/accesses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТХТ\TXT 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\Job\file\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
-  <si>
-    <t>i.piatenko@csd.com.ua</t>
-  </si>
-  <si>
-    <t>yS94W44qwLUUxUdP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>CSD</t>
   </si>
@@ -39,15 +33,6 @@
     <t>Mediland</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Jira</t>
   </si>
   <si>
@@ -97,18 +82,6 @@
   </si>
   <si>
     <t>1qaz2wsx</t>
-  </si>
-  <si>
-    <t>Перейти</t>
-  </si>
-  <si>
-    <t>r-n</t>
-  </si>
-  <si>
-    <t>До конца недели( указать в описании дедлайн)</t>
-  </si>
-  <si>
-    <t>Миска</t>
   </si>
   <si>
     <t>test13ny6zj37ZZh8A</t>
@@ -339,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -356,7 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -659,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,194 +650,152 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="P3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="9" t="s">
-        <v>32</v>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
-        <v>34</v>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -874,22 +804,14 @@
     <mergeCell ref="E2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="P4" r:id="rId2" display="https://helper.bizonoff.ua/"/>
-    <hyperlink ref="F4" r:id="rId3" display="+"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="E2" r:id="rId5"/>
-    <hyperlink ref="M4" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7"/>
-    <hyperlink ref="D4" r:id="rId8"/>
-    <hyperlink ref="D5" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
-    <hyperlink ref="L4" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D2" r:id="rId13"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -905,10 +827,10 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">

--- a/file/documents/accesses.xlsx
+++ b/file/documents/accesses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>CSD</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>test@mail.fake1</t>
+  </si>
+  <si>
+    <t>Логін в HIS al.an.shcherbak@gmail.com</t>
+  </si>
+  <si>
+    <t>Пароль в НIS (та есоз): Bashtova1978</t>
+  </si>
+  <si>
+    <t>6C172694</t>
+  </si>
+  <si>
+    <t>helsi@me.pro</t>
+  </si>
+  <si>
+    <t>Client**</t>
   </si>
 </sst>
 </file>
@@ -631,23 +646,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,43 +674,46 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
         <v>30</v>
@@ -706,10 +724,12 @@
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -718,12 +738,13 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>5</v>
@@ -734,77 +755,93 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="F2:P2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>

--- a/file/documents/accesses.xlsx
+++ b/file/documents/accesses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>CSD</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Client**</t>
+  </si>
+  <si>
+    <t>Client10</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -363,6 +366,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,10 +841,25 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="F2:P2"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>

--- a/file/documents/accesses.xlsx
+++ b/file/documents/accesses.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>CSD</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Client10</t>
+  </si>
+  <si>
+    <t>AXE CSD</t>
   </si>
 </sst>
 </file>
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,6 +856,19 @@
       <c r="D14" s="17"/>
       <c r="E14" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/file/documents/accesses.xlsx
+++ b/file/documents/accesses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\Job\file\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\job\file\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>CSD</t>
   </si>
@@ -139,13 +139,34 @@
   </si>
   <si>
     <t>AXE CSD</t>
+  </si>
+  <si>
+    <t>SC976760</t>
+  </si>
+  <si>
+    <t>e.avramenko@kolbiko.com</t>
+  </si>
+  <si>
+    <t>ic88yOmMEq</t>
+  </si>
+  <si>
+    <t>Колбико</t>
+  </si>
+  <si>
+    <t>Время Добрых</t>
+  </si>
+  <si>
+    <t>vremya.dobryh@mail.ru</t>
+  </si>
+  <si>
+    <t>tJs1QP4hep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +219,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -333,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -353,6 +397,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,14 +709,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
@@ -736,19 +791,19 @@
       <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
       <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
@@ -770,17 +825,17 @@
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="10" t="s">
         <v>15</v>
       </c>
@@ -792,7 +847,9 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
@@ -806,68 +863,137 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="17" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="17"/>
-      <c r="E14" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="21"/>
+      <c r="E17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -875,12 +1001,12 @@
   <mergeCells count="3">
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="F2:P2"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
     <hyperlink ref="D2" r:id="rId5"/>
   </hyperlinks>

--- a/file/documents/accesses.xlsx
+++ b/file/documents/accesses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\job\file\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\job\file\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFB3390-5B89-4774-ABCB-1A9E538130C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>CSD</t>
   </si>
@@ -138,9 +139,6 @@
     <t>Client10</t>
   </si>
   <si>
-    <t>AXE CSD</t>
-  </si>
-  <si>
     <t>SC976760</t>
   </si>
   <si>
@@ -160,13 +158,34 @@
   </si>
   <si>
     <t>tJs1QP4hep</t>
+  </si>
+  <si>
+    <t>Доступы к Админкам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мастер </t>
+  </si>
+  <si>
+    <t>ТимВеб</t>
+  </si>
+  <si>
+    <t>info@bizonoff.ua</t>
+  </si>
+  <si>
+    <t>brYZqRXaPR</t>
+  </si>
+  <si>
+    <t>info@bizonoff.net</t>
+  </si>
+  <si>
+    <t>AссE CSD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +261,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -377,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -426,6 +453,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +759,8 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -848,7 +888,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -869,9 +909,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="11"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -883,16 +925,15 @@
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="C6" s="12"/>
       <c r="E6" s="11"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -906,14 +947,12 @@
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="24"/>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -923,7 +962,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
@@ -931,13 +970,20 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
+      <c r="G8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -945,24 +991,50 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="8"/>
+      <c r="G10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>24</v>
       </c>
+      <c r="G11" s="21"/>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>31</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -986,7 +1058,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -998,17 +1070,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="F2:P2"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="D2" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1016,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/file/documents/accesses.xlsx
+++ b/file/documents/accesses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\job\file\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\OPS\domains\job\file\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFB3390-5B89-4774-ABCB-1A9E538130C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE40686-9021-4C5A-818B-4945AE32187C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2850" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>CSD</t>
   </si>
@@ -179,6 +179,33 @@
   </si>
   <si>
     <t>AссE CSD</t>
+  </si>
+  <si>
+    <t>vethelp911.ru</t>
+  </si>
+  <si>
+    <t>VetHelp Admin</t>
+  </si>
+  <si>
+    <t>XvjzlkNPPF</t>
+  </si>
+  <si>
+    <t>https://smmprime.com/signup</t>
+  </si>
+  <si>
+    <t>kolbiko_dn</t>
+  </si>
+  <si>
+    <t>Beetle19+</t>
+  </si>
+  <si>
+    <t>1fNZ2re9y3</t>
+  </si>
+  <si>
+    <t>Dartsite Admin</t>
+  </si>
+  <si>
+    <t>Dartsite</t>
   </si>
 </sst>
 </file>
@@ -404,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -434,6 +461,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,8 +494,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,7 +781,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G18" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,19 +861,19 @@
       <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
@@ -865,17 +895,17 @@
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="10" t="s">
         <v>15</v>
       </c>
@@ -909,11 +939,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="11"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -928,10 +958,10 @@
       <c r="C6" s="12"/>
       <c r="E6" s="11"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="4"/>
@@ -949,7 +979,7 @@
       <c r="C7" s="12"/>
       <c r="E7" s="11"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="25"/>
       <c r="H7" t="s">
         <v>43</v>
       </c>
@@ -970,7 +1000,7 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -991,7 +1021,7 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="14" t="s">
         <v>39</v>
       </c>
@@ -1004,7 +1034,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>45</v>
       </c>
       <c r="H10" t="s">
@@ -1015,13 +1045,13 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="H11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>46</v>
       </c>
       <c r="H12" t="s">
@@ -1032,7 +1062,7 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" t="s">
         <v>48</v>
       </c>
@@ -1041,36 +1071,69 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
+      <c r="G14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="22"/>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="21"/>
+      <c r="G16" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="22"/>
       <c r="E17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="26"/>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>5</v>
       </c>
+      <c r="G19" s="22"/>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="F2:P2"/>
     <mergeCell ref="D16:D17"/>
@@ -1079,6 +1142,8 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
